--- a/doc/planification reel.xlsx
+++ b/doc/planification reel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621892F9-E92C-41BD-B343-5BD313269D3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162C866-D85F-4DCE-B86F-A98229F4FDE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,6 +652,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -714,33 +741,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="7" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1119,88 +1119,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="13" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="13" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="15"/>
+      <c r="X1" s="24"/>
     </row>
     <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="20">
+      <c r="B2" s="26"/>
+      <c r="C2" s="29">
         <v>44256</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31">
         <v>44257</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24">
+      <c r="F2" s="32"/>
+      <c r="G2" s="33">
         <v>44258</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="22">
+      <c r="H2" s="34"/>
+      <c r="I2" s="31">
         <v>44259</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="26">
+      <c r="J2" s="32"/>
+      <c r="K2" s="35">
         <v>44260</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28">
+      <c r="L2" s="36"/>
+      <c r="M2" s="37">
         <v>44263</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="N2" s="38"/>
+      <c r="O2" s="39">
         <v>44264</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="28">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="37">
         <v>44265</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="32">
+      <c r="R2" s="38"/>
+      <c r="S2" s="41">
         <v>44266</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="28">
+      <c r="T2" s="42"/>
+      <c r="U2" s="37">
         <v>44267</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="22">
+      <c r="V2" s="38"/>
+      <c r="W2" s="31">
         <v>44270</v>
       </c>
-      <c r="X2" s="23"/>
+      <c r="X2" s="32"/>
     </row>
     <row r="3" spans="1:24" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1269,32 +1269,32 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="36"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21"/>
     </row>
     <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1309,8 +1309,8 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1339,7 +1339,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="41"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -1367,7 +1367,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="41"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -1396,7 +1396,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -1424,7 +1424,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -1453,7 +1453,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -1482,7 +1482,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
@@ -1511,8 +1511,8 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -1543,38 +1543,38 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="11"/>
       <c r="X13" s="8"/>
     </row>
     <row r="14" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -1583,7 +1583,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="41"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1612,8 +1612,8 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -1642,7 +1642,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="41"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1670,13 +1670,13 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="41"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -1699,7 +1699,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="41"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -1728,7 +1728,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="41"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="9"/>
@@ -1773,32 +1773,32 @@
       <c r="X21" s="8"/>
     </row>
     <row r="22" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -1809,20 +1809,20 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="41"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="41"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="41"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="11"/>
@@ -1867,12 +1867,12 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="41"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -1891,10 +1891,10 @@
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="41"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="41"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1945,7 +1945,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="41"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -1997,21 +1997,23 @@
       <c r="X29" s="11"/>
     </row>
     <row r="31" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="F31" s="37" t="s">
+      <c r="D31" s="14"/>
+      <c r="F31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="I31" s="37" t="s">
+      <c r="G31" s="15"/>
+      <c r="I31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="A4:X4"/>
     <mergeCell ref="A14:X14"/>
     <mergeCell ref="A22:X22"/>
@@ -2028,8 +2030,6 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/doc/planification reel.xlsx
+++ b/doc/planification reel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162C866-D85F-4DCE-B86F-A98229F4FDE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551EB71B-578C-4275-889E-096D4B9AE0D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="2025" windowWidth="21225" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -670,6 +670,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -707,12 +719,6 @@
       <alignment horizontal="left" vertical="top" indent="7" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,12 +729,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5" shrinkToFit="1"/>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1119,88 +1119,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="22" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="22" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24"/>
+      <c r="X1" s="28"/>
     </row>
     <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="29">
+      <c r="B2" s="30"/>
+      <c r="C2" s="33">
         <v>44256</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31">
+      <c r="D2" s="34"/>
+      <c r="E2" s="21">
         <v>44257</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33">
+      <c r="F2" s="22"/>
+      <c r="G2" s="35">
         <v>44258</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="31">
+      <c r="H2" s="36"/>
+      <c r="I2" s="21">
         <v>44259</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="35">
+      <c r="J2" s="22"/>
+      <c r="K2" s="37">
         <v>44260</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37">
+      <c r="L2" s="38"/>
+      <c r="M2" s="19">
         <v>44263</v>
       </c>
-      <c r="N2" s="38"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="39">
         <v>44264</v>
       </c>
       <c r="P2" s="40"/>
-      <c r="Q2" s="37">
+      <c r="Q2" s="19">
         <v>44265</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="20"/>
       <c r="S2" s="41">
         <v>44266</v>
       </c>
       <c r="T2" s="42"/>
-      <c r="U2" s="37">
+      <c r="U2" s="19">
         <v>44267</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="31">
+      <c r="V2" s="20"/>
+      <c r="W2" s="21">
         <v>44270</v>
       </c>
-      <c r="X2" s="32"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" spans="1:24" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1269,32 +1269,32 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="21"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="25"/>
     </row>
     <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1549,32 +1549,32 @@
       <c r="X13" s="8"/>
     </row>
     <row r="14" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="25"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -1773,32 +1773,32 @@
       <c r="X21" s="8"/>
     </row>
     <row r="22" spans="1:24" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="25"/>
     </row>
     <row r="23" spans="1:24" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -1825,8 +1825,8 @@
       <c r="T23" s="17"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -2012,11 +2012,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A14:X14"/>
-    <mergeCell ref="A22:X22"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="M1:V1"/>
     <mergeCell ref="W1:X1"/>
@@ -2030,6 +2025,11 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A14:X14"/>
+    <mergeCell ref="A22:X22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
